--- a/inputs/klassendocenten.xlsx
+++ b/inputs/klassendocenten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="5960" windowWidth="25040" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="4580" yWindow="840" windowWidth="25360" windowHeight="15240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>docenten</t>
+  </si>
+  <si>
+    <t>NL-AB|EN-CV|WI-AW|LA-DF|GR-DF|HV-FH|LO-AT</t>
+  </si>
+  <si>
+    <t>NL-AB|EN-CV|WI-GB|LA-DF|GR-DF|HV-FH|LO-AT</t>
+  </si>
+  <si>
+    <t>NL-AB|EN-CV|WI-GB|LA-DF|GR-DF|HV-FH|LO-AT|ML-IU</t>
+  </si>
+  <si>
+    <t>NL-AB|EN-CV|WI-GB|LA-DF|GR-DF|HV-FH|LO-AT|AK-BH</t>
+  </si>
   <si>
     <t>klas</t>
   </si>
   <si>
-    <t>jaar</t>
-  </si>
-  <si>
-    <t>niveau</t>
-  </si>
-  <si>
-    <t>grootte</t>
-  </si>
-  <si>
-    <t>mentor</t>
-  </si>
-  <si>
     <t>H1A</t>
   </si>
   <si>
@@ -48,30 +51,6 @@
     <t>H2B</t>
   </si>
   <si>
-    <t>docenten</t>
-  </si>
-  <si>
-    <t>NL-AB|EN-CV|WI-GB|LA-DF|GR-DF|HV-FH|LO-AT</t>
-  </si>
-  <si>
-    <t>NL-AB|EN-CV|WI-AW|LA-DF|GR-DF|HV-FH|LO-AT</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
     <t>V1A</t>
   </si>
   <si>
@@ -82,53 +61,16 @@
   </si>
   <si>
     <t>V2B</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>FH</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>NL-AB|EN-CV|WI-GB|LA-DF|GR-DF|HV-FH|LO-AT|AK-BH</t>
-  </si>
-  <si>
-    <t>NL-AB|EN-CV|WI-GB|LA-DF|GR-DF|HV-FH|LO-AT|ML-IU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,21 +93,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,200 +429,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
